--- a/main/xlsx/Data_Frame_With_Labels_And_Clusters.xlsx
+++ b/main/xlsx/Data_Frame_With_Labels_And_Clusters.xlsx
@@ -385,7 +385,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1.63</v>
@@ -396,7 +396,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3.688</v>
@@ -418,7 +418,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>5.94</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>35.567</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>43.29</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>43.88</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>43.99</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>44.8</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>89.18000000000001</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>96.39</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>97.87</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>142.29</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>143.63</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24">
         <v>144</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>144.43</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>145.2</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>151.952</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>154.47</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>161.82</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>165.94</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35">
         <v>169.64</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <v>173.48</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <v>178.9</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>181.63</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B40">
         <v>183.2</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>183.56</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>208.191</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>210.15</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>220.409</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <v>228.619</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>230.06</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <v>231.35</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <v>235.45</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>236.75</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52">
         <v>241.807</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B54">
         <v>246.95</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <v>249.08</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>252.91</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>267.356</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B60">
         <v>276.71</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B61">
         <v>284.6</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B62">
         <v>295.43</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B63">
         <v>299.79</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B65">
         <v>306.28</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66">
         <v>306.75</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B67">
         <v>306.99</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B68">
         <v>307.085</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B69">
         <v>314.46</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <v>314.48</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B71">
         <v>314.89</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72">
         <v>316.15</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73">
         <v>318.68</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B74">
         <v>325.29</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B75">
         <v>334.95</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B76">
         <v>357.79</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B77">
         <v>358.28</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B78">
         <v>362.5</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B79">
         <v>378.68</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B80">
         <v>404.05</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B81">
         <v>407.558</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B82">
         <v>408.19</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>425.49</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <v>426.911</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B85">
         <v>428.742</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86">
         <v>438.202</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B87">
         <v>438.492</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B88">
         <v>439.281</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B89">
         <v>455.59</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B90">
         <v>458.57</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B91">
         <v>466.1</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B92">
         <v>466.96</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93">
         <v>466.97</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B94">
         <v>468.4</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B95">
         <v>471.166</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B96">
         <v>472.666</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B97">
         <v>503.747</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B98">
         <v>508.727</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>515.7</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B100">
         <v>516.05</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B102">
         <v>518.899</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B103">
         <v>520.46</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B106">
         <v>532.831</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B107">
         <v>533.8</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B108">
         <v>535.268</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B109">
         <v>537.658</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B110">
         <v>539.86</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B113">
         <v>544.732</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B114">
         <v>545.8</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B115">
         <v>545.899</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B119">
         <v>549.85</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B120">
         <v>550.1</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B122">
         <v>566.21</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B123">
         <v>570.5599999999999</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B124">
         <v>573.3</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B125">
         <v>575.0599999999999</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B126">
         <v>575.452</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128">
         <v>585.71</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B130">
         <v>589.13</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B131">
         <v>589.612</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B132">
         <v>591.15</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B133">
         <v>591.966</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B134">
         <v>594.049</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B135">
         <v>595.049</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B136">
         <v>597.04</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B137">
         <v>598.429</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B138">
         <v>600.569</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B139">
         <v>604.629</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B141">
         <v>605.777</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142">
         <v>612.91</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B143">
         <v>613.1369999999999</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B144">
         <v>614.89</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B145">
         <v>616.35</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B147">
         <v>634.5599999999999</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B148">
         <v>645.103</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B150">
         <v>664.16</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B151">
         <v>665.396</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B152">
         <v>665.546</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B153">
         <v>667.425</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B154">
         <v>667.4450000000001</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B158">
         <v>687.951</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B159">
         <v>694.8099999999999</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B160">
         <v>697.64</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B161">
         <v>702.47</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B162">
         <v>704.72</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B163">
         <v>705.38</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B164">
         <v>708.009</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B165">
         <v>708.819</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B166">
         <v>727.34</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B167">
         <v>729.7910000000001</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B168">
         <v>738.784</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B176">
         <v>807.046</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B177">
         <v>812.119</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B178">
         <v>817.6369999999999</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B179">
         <v>817.8</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B180">
         <v>817.927</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B181">
         <v>818.49</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B182">
         <v>818.537</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B183">
         <v>818.78</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B184">
         <v>818.847</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B185">
         <v>823.763</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B186">
         <v>824.1900000000001</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B187">
         <v>824.253</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B188">
         <v>824.47</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B189">
         <v>826.13</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B192">
         <v>837.775</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B198">
         <v>849.54</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B199">
         <v>850.04</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B200">
         <v>850.29</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B201">
         <v>850.55</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B202">
         <v>851.05</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B203">
         <v>857.1</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B204">
         <v>857.692</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B205">
         <v>859.9589999999999</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B206">
         <v>880.7569999999999</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B207">
         <v>885.04</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B210">
         <v>898.45</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B211">
         <v>925.96</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B213">
         <v>938.186</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B215">
         <v>941.9</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B216">
         <v>944.999</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B217">
         <v>952.5</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B218">
         <v>959.33</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B219">
         <v>959.74</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B220">
         <v>960.04</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B221">
         <v>971.104</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B222">
         <v>971.424</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B223">
         <v>974.877</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B224">
         <v>977.16</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B225">
         <v>977.3</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B226">
         <v>979.67</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B227">
         <v>980.96</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B229">
         <v>992.164</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B230">
         <v>992.944</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B231">
         <v>993.604</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B232">
         <v>996.196</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B233">
         <v>996.504</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B234">
         <v>997.024</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B235">
         <v>997.4160000000001</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B236">
         <v>997.614</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B237">
         <v>998.404</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B238">
         <v>1009.27</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B239">
         <v>1058.56</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B240">
         <v>1058.98</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B241">
         <v>1059.12</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B242">
         <v>1060.11</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B243">
         <v>1076.92</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B244">
         <v>1077.52</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B245">
         <v>1186.17</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B246">
         <v>1186.93</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B247">
         <v>1187.35</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B248">
         <v>1202.1</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B249">
         <v>1203.71</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B250">
         <v>1242.34</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B251">
         <v>1243.71</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B252">
         <v>1259.78</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B253">
         <v>1279.28</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B254">
         <v>1305.79</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B255">
         <v>1306.31</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B256">
         <v>1307.5</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B257">
         <v>1356.34</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B258">
         <v>1356.75</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B259">
         <v>1368.13</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B260">
         <v>1380.93</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B261">
         <v>1386.71</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B262">
         <v>1388.1</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B263">
         <v>1389.86</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B264">
         <v>1399.16</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B265">
         <v>1403.43</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B266">
         <v>1425.12</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B267">
         <v>1437.54</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B268">
         <v>1441.19</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B269">
         <v>1441.45</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B270">
         <v>1441.73</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B271">
         <v>1445.11</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B272">
         <v>1446.55</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B273">
         <v>1446.99</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B274">
         <v>1447.52</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B275">
         <v>1455.51</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B276">
         <v>1460.86</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B277">
         <v>1470.27</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B278">
         <v>1472.62</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B279">
         <v>1473.3</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B280">
         <v>1473.78</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B281">
         <v>1473.84</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B282">
         <v>1514.19</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B283">
         <v>1533.38</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B284">
         <v>1538.21</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B285">
         <v>1539.63</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B286">
         <v>1542.56</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B287">
         <v>1627.79</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B288">
         <v>1634.68</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B289">
         <v>1635.55</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B290">
         <v>1635.61</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B291">
         <v>1635.87</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B292">
         <v>1636.14</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B293">
         <v>1637.07</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B294">
         <v>1638.78</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B295">
         <v>1641.6</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B296">
         <v>1641.91</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B297">
         <v>1645.65</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B298">
         <v>1665.89</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B299">
         <v>1678.92</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B300">
         <v>1686.27</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B301">
         <v>1686.88</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B302">
         <v>1774.47</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B303">
         <v>1774.94</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B304">
         <v>1775.69</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B305">
         <v>1775.74</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B306">
         <v>1775.82</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B307">
         <v>1781.39</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B308">
         <v>1782.36</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B309">
         <v>1782.53</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B310">
         <v>1782.69</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B311">
         <v>1782.9</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B312">
         <v>1785.82</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B313">
         <v>1786.33</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B314">
         <v>1790.38</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B315">
         <v>1801.81</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B316">
         <v>1804.55</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B317">
         <v>1806.61</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B318">
         <v>1807.5</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B319">
         <v>1807.92</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B320">
         <v>1808.04</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B321">
         <v>1808.37</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B322">
         <v>1808.53</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B323">
         <v>1808.65</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B324">
         <v>1809.86</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B325">
         <v>1810.73</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B326">
         <v>1813.44</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B327">
         <v>1818.71</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B328">
         <v>1821.52</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B329">
         <v>1821.53</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B330">
         <v>1822.83</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B331">
         <v>1833.26</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B332">
         <v>1833.54</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B333">
         <v>1834.36</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B334">
         <v>1836.73</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B335">
         <v>1852.44</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B336">
         <v>1855.23</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B337">
         <v>1876.89</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B338">
         <v>1908.62</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B339">
         <v>1917.95</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B340">
         <v>1919.33</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B341">
         <v>1921.55</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B342">
         <v>1923.57</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B343">
         <v>1924.56</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B344">
         <v>1925.12</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B345">
         <v>1925.21</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B346">
         <v>1928.57</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B347">
         <v>1937.83</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B348">
         <v>1939.53</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B349">
         <v>1941.51</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B350">
         <v>1942.81</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B351">
         <v>1943.47</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B352">
         <v>1963.93</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B353">
         <v>1965.93</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B354">
         <v>1966.52</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B355">
         <v>1983.03</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B356">
         <v>1984</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B357">
         <v>1994.93</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B358">
         <v>2001.84</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B359">
         <v>2012.62</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B360">
         <v>2013.23</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B361">
         <v>2014.05</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B362">
         <v>2025.61</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B363">
         <v>2026.63</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B364">
         <v>2050.03</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B365">
         <v>2053.36</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B366">
         <v>2053.44</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B367">
         <v>2053.75</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B368">
         <v>2056.37</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B369">
         <v>2060.53</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B370">
         <v>2066.05</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B371">
         <v>2066.21</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B372">
         <v>2076.08</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B373">
         <v>2076.48</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B374">
         <v>2079.05</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B375">
         <v>2079.2</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B376">
         <v>2079.34</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B377">
         <v>2088.6</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B378">
         <v>2100.84</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B379">
         <v>2103.75</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B380">
         <v>2105.38</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B381">
         <v>2107.11</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B382">
         <v>2110.36</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B383">
         <v>2112.42</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B384">
         <v>2114.61</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B385">
         <v>2114.72</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B386">
         <v>2123.47</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B387">
         <v>2124.52</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B388">
         <v>2129.03</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B389">
         <v>2130.27</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B390">
         <v>2132.02</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B391">
         <v>2132.22</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B392">
         <v>2140.3</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B393">
         <v>2149.04</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B394">
         <v>2150.03</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B395">
         <v>2150.16</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B396">
         <v>2150.34</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B397">
         <v>2154.04</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B398">
         <v>2154.5</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B399">
         <v>2154.94</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B400">
         <v>2182.88</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B401">
         <v>2189.31</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B402">
         <v>2189.43</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B403">
         <v>2195.68</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B404">
         <v>2196.59</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B405">
         <v>2196.59</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B406">
         <v>2198.52</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B407">
         <v>2199.86</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B408">
         <v>2200.34</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B409">
         <v>2200.82</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B410">
         <v>2216.06</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B411">
         <v>2219.02</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B412">
         <v>2244.04</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B413">
         <v>2244.89</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B414">
         <v>2245.25</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B415">
         <v>2245.46</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B416">
         <v>2246.05</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B417">
         <v>2246.24</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B418">
         <v>2248.52</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B419">
         <v>2248.78</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B420">
         <v>2258</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B421">
         <v>2258.51</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B422">
         <v>2260.42</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B423">
         <v>2268.69</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B424">
         <v>2286.38</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B425">
         <v>2287.02</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B426">
         <v>2287.53</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B427">
         <v>2291.61</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B428">
         <v>2292.49</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B429">
         <v>2304.59</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B430">
         <v>2304.79</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B431">
         <v>2305.14</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B432">
         <v>2327.51</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B433">
         <v>2335.65</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B434">
         <v>2337.2</v>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B435">
         <v>2338.67</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B436">
         <v>2341.9</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B437">
         <v>2343.74</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B438">
         <v>2344.86</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B439">
         <v>2347.82</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B440">
         <v>2387.91</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B441">
         <v>2389.27</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B442">
         <v>2390.04</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B443">
         <v>2409.38</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B444">
         <v>2420.27</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B445">
         <v>2421.77</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B446">
         <v>2423.7</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B447">
         <v>2426.71</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B448">
         <v>2441.66</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B449">
         <v>2459.6</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B450">
         <v>2465.88</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B451">
         <v>2484.09</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B452">
         <v>2484.26</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B453">
         <v>2484.43</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B454">
         <v>2486.16</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B455">
         <v>2486.66</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B456">
         <v>2487.26</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B457">
         <v>2489.63</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B458">
         <v>2493.49</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B459">
         <v>2507.66</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B460">
         <v>2507.77</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B461">
         <v>2508.72</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B462">
         <v>2510.87</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B463">
         <v>2522.69</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B464">
         <v>2525.38</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B465">
         <v>2529.75</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B466">
         <v>2531.53</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B467">
         <v>2541.06</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B468">
         <v>2542.43</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B469">
         <v>2554.99</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B470">
         <v>2562.88</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B471">
         <v>2572.16</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B472">
         <v>2572.56</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B473">
         <v>2573.87</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B474">
         <v>2574.31</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B475">
         <v>2585.24</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B476">
         <v>2594.05</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B477">
         <v>2603.57</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B478">
         <v>2607.1</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B479">
         <v>2610.14</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B480">
         <v>2633.13</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B481">
         <v>2633.45</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B482">
         <v>2667.48</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B483">
         <v>2673.73</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B484">
         <v>2715.39</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B485">
         <v>2719.01</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B486">
         <v>2719.21</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B487">
         <v>2722.71</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B488">
         <v>2723.56</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B489">
         <v>2724.09</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B490">
         <v>2724.35</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B491">
         <v>2724.66</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B492">
         <v>2725.51</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B493">
         <v>2733.83</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B494">
         <v>2744.87</v>
@@ -5808,7 +5808,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B495">
         <v>2746.72</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B496">
         <v>2747.8</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B497">
         <v>2765.21</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B498">
         <v>2765.76</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B499">
         <v>2775.26</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B500">
         <v>2776.31</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B501">
         <v>2776.82</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B502">
         <v>2777.48</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B503">
         <v>2777.78</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B504">
         <v>2778.48</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B505">
         <v>2795.42</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B506">
         <v>2795.55</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B507">
         <v>2797.3</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B508">
         <v>2810.2</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B509">
         <v>2814.49</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B510">
         <v>2819.91</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B511">
         <v>2838.41</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B512">
         <v>2838.88</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B513">
         <v>2839.07</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B514">
         <v>2857.61</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B515">
         <v>2881.2</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B516">
         <v>2919.65</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B517">
         <v>2933.6</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B518">
         <v>2947.6</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B519">
         <v>2949.6</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B520">
         <v>2954.65</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B521">
         <v>2954.76</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B522">
         <v>2961.61</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B523">
         <v>2967.88</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B524">
         <v>2969.02</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B525">
         <v>2986.59</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B526">
         <v>2987.27</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B527">
         <v>2991.31</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B528">
         <v>2994.99</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B529">
         <v>3003.9</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B530">
         <v>3003.99</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B531">
         <v>3004.22</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B532">
         <v>3004.99</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B533">
         <v>3008.19</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B534">
         <v>3008.29</v>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B535">
         <v>3031.46</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B536">
         <v>3033.15</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B537">
         <v>3036.2</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B538">
         <v>3036.61</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B539">
         <v>3055.05</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B540">
         <v>3056.05</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B541">
         <v>3068.37</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B542">
         <v>3079.53</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B543">
         <v>3080.63</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B544">
         <v>3081.06</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B545">
         <v>3087.72</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B546">
         <v>3093.75</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B547">
         <v>3094.58</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B548">
         <v>3096.62</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B549">
         <v>3101.55</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B550">
         <v>3105</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B551">
         <v>3107.52</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B552">
         <v>3113.44</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B553">
         <v>3123.1</v>
@@ -6457,7 +6457,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B554">
         <v>3123.42</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B555">
         <v>3136.65</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B556">
         <v>3146.32</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B557">
         <v>3157.39</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B558">
         <v>3164.85</v>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B559">
         <v>3165.64</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B560">
         <v>3165.94</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B561">
         <v>3166.07</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B562">
         <v>3166.34</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B563">
         <v>3171.65</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B564">
         <v>3171.69</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B565">
         <v>3172.22</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B566">
         <v>3173.64</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B567">
         <v>3174.87</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B568">
         <v>3178.6</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B569">
         <v>3188.32</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B570">
         <v>3206.23</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B571">
         <v>3211.37</v>
